--- a/workingfolder/python/tables/SCE_SV_NI.xlsx
+++ b/workingfolder/python/tables/SCE_SV_NI.xlsx
@@ -411,10 +411,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.71</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0.2</v>
@@ -425,10 +425,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
-        <v>0.71</v>
+        <v>2.99</v>
       </c>
       <c r="D3">
         <v>0.2</v>
@@ -439,10 +439,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C4">
-        <v>0.71</v>
+        <v>2.99</v>
       </c>
       <c r="D4">
         <v>0.2</v>

--- a/workingfolder/python/tables/SCE_SV_NI.xlsx
+++ b/workingfolder/python/tables/SCE_SV_NI.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankofcanada-my.sharepoint.com/personal/want_bank-banque-canada_ca/Documents/MyDocs/GitHub/InfVar/workingfolder/python/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_496D3187C346D0EFE85B90145F245E3FB48F8D5D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF4BCCCE-ECA7-4B39-878D-E1602DED100C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28740" yWindow="-16425" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -37,8 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,10 +55,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,6 +105,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -388,14 +400,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,49 +420,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0.1</v>
-      </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
       <c r="C3">
-        <v>2.99</v>
-      </c>
-      <c r="D3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
       <c r="C4">
-        <v>2.99</v>
-      </c>
-      <c r="D4">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>